--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_15_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_15_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1145941.229415791</v>
+        <v>1139895.503855126</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1042617.113969143</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10871827.57914585</v>
+        <v>11128260.55082949</v>
       </c>
     </row>
     <row r="11">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>63.82009360389013</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>113.7237131066889</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -864,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>90.32706253001675</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>8.906162259192037</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -907,7 +907,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>129.6194020613852</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>227.7172236952955</v>
       </c>
     </row>
     <row r="6">
@@ -1059,16 +1059,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>35.19569619650095</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1104,25 +1104,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>192.1675620474802</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>283.6826708844497</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1150,7 +1150,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>190.4666355843596</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>97.3698899006303</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>148.1736287443612</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1384,10 +1384,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>168.1158122680975</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.9994691657081</v>
+        <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
-        <v>190.7165703189231</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7871683969286</v>
+        <v>225.7478006422472</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1530,25 +1530,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>41.56693137108846</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>264.6171092506985</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.683041620684</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1621,10 +1621,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>229.7965692041383</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.9994691657081</v>
+        <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414547</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T15" t="n">
-        <v>190.7165703189231</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7871683969286</v>
+        <v>225.7478006422472</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1779,13 +1779,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>25.52471385612638</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.2419515106227</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2004,22 +2004,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>130.1208074460232</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>23.10998325717215</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2131,19 +2131,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2244,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>115.7228684476127</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>172.026033500079</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>55.52079624060383</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2715,10 +2715,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>35.56815683447386</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2797,7 +2797,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>172.026033500079</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>16.92025364381894</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>55.52079624060555</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>206.7582264966181</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3672,7 +3672,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>19.91555826189198</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3723,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>240.0633098883605</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,13 +3903,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>62.14989839348932</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>55.52079624060473</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2172.199996424344</v>
+        <v>531.4162778577447</v>
       </c>
       <c r="C2" t="n">
-        <v>1803.237479483932</v>
+        <v>531.4162778577447</v>
       </c>
       <c r="D2" t="n">
-        <v>1444.971780877182</v>
+        <v>531.4162778577447</v>
       </c>
       <c r="E2" t="n">
-        <v>1059.183528278937</v>
+        <v>531.4162778577447</v>
       </c>
       <c r="F2" t="n">
-        <v>648.1976234893298</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G2" t="n">
-        <v>232.4928732136186</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
         <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>1975.313418796631</v>
       </c>
       <c r="V2" t="n">
-        <v>2562.339328400155</v>
+        <v>1644.25053145306</v>
       </c>
       <c r="W2" t="n">
-        <v>2562.339328400155</v>
+        <v>1291.481876182946</v>
       </c>
       <c r="X2" t="n">
-        <v>2562.339328400155</v>
+        <v>918.0161179218665</v>
       </c>
       <c r="Y2" t="n">
-        <v>2172.199996424344</v>
+        <v>918.0161179218665</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966398</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155128</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542614</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488059</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756909</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.4432786182533</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812058006</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>590.20497511435</v>
+        <v>560.1394111735143</v>
       </c>
       <c r="L3" t="n">
-        <v>884.9085321458217</v>
+        <v>909.2465818694951</v>
       </c>
       <c r="M3" t="n">
-        <v>1248.170551105042</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N3" t="n">
-        <v>1635.455679701987</v>
+        <v>1659.793729425661</v>
       </c>
       <c r="O3" t="n">
-        <v>1967.526114878149</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710446</v>
+        <v>2239.04689843412</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S3" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.617474780097</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610846175227</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047139</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.368633815396</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087195</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.279776881662</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519478116708</v>
       </c>
     </row>
     <row r="4">
@@ -4464,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>51.24678656800311</v>
+        <v>665.1026499885493</v>
       </c>
       <c r="C4" t="n">
-        <v>51.24678656800311</v>
+        <v>496.1664670606424</v>
       </c>
       <c r="D4" t="n">
-        <v>51.24678656800311</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E4" t="n">
-        <v>51.24678656800311</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4509,31 +4509,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.233965749941</v>
+        <v>1545.206662973471</v>
       </c>
       <c r="T4" t="n">
-        <v>1114.255484944676</v>
+        <v>1322.228182168206</v>
       </c>
       <c r="U4" t="n">
-        <v>825.137147448514</v>
+        <v>1322.228182168206</v>
       </c>
       <c r="V4" t="n">
-        <v>570.4526592426272</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="W4" t="n">
-        <v>281.0354892056666</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="X4" t="n">
-        <v>272.0393657115332</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="Y4" t="n">
-        <v>51.24678656800311</v>
+        <v>846.751114818789</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2065.110222835252</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C5" t="n">
-        <v>1696.14770589484</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>1337.882007288089</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>952.0937546898451</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
         <v>821.1650657389509</v>
@@ -4564,55 +4564,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136265</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V5" t="n">
-        <v>3215.315153136265</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="W5" t="n">
-        <v>3215.315153136265</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="X5" t="n">
-        <v>2841.849394875185</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="Y5" t="n">
-        <v>2451.710062899373</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="6">
@@ -4637,16 +4637,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>270.9995076393842</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>102.0633247114773</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>66.5121164321834</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>66.5121164321834</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>66.5121164321834</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4752,25 +4752,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1513.842048484845</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1224.739181610489</v>
+        <v>1733.185899555685</v>
       </c>
       <c r="V7" t="n">
-        <v>970.0546934046018</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="W7" t="n">
-        <v>680.6375233676413</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X7" t="n">
-        <v>452.6479724696239</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y7" t="n">
-        <v>452.6479724696239</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1689.318139675982</v>
+        <v>1904.487375535338</v>
       </c>
       <c r="C8" t="n">
-        <v>1320.35562273557</v>
+        <v>1904.487375535338</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3133.215280614868</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3133.215280614868</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V8" t="n">
-        <v>2802.152393271298</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W8" t="n">
-        <v>2449.383738001183</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X8" t="n">
-        <v>2075.917979740103</v>
+        <v>1904.487375535338</v>
       </c>
       <c r="Y8" t="n">
-        <v>2075.917979740103</v>
+        <v>1904.487375535338</v>
       </c>
     </row>
     <row r="9">
@@ -4874,16 +4874,16 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>678.2257657051542</v>
+        <v>725.9304417640992</v>
       </c>
       <c r="C10" t="n">
-        <v>509.2895827772473</v>
+        <v>556.9942588361923</v>
       </c>
       <c r="D10" t="n">
-        <v>509.2895827772473</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="E10" t="n">
-        <v>509.2895827772473</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F10" t="n">
-        <v>362.399635279337</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1705.527932658019</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U10" t="n">
-        <v>1416.425065783662</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="V10" t="n">
-        <v>1416.425065783662</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="W10" t="n">
-        <v>1127.007895746702</v>
+        <v>1356.361036635886</v>
       </c>
       <c r="X10" t="n">
-        <v>899.0183448486844</v>
+        <v>1128.371485737869</v>
       </c>
       <c r="Y10" t="n">
-        <v>678.2257657051542</v>
+        <v>907.5789065943389</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2175.400891308158</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1806.438374367746</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1448.172675760996</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1062.384423162752</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>651.398518373144</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>236.3260682181405</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218343</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218343</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912096</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810562</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.77673900139</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939509</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296687</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052369</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.605821609171</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>3325.605821609171</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3325.605821609171</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3325.605821609171</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>2952.140063348092</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2562.00073137228</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927781</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064576</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228006</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031476</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>765.151745215813</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>163.8377936138381</v>
+        <v>990.5373202159263</v>
       </c>
       <c r="C13" t="n">
-        <v>163.8377936138381</v>
+        <v>821.6011372880195</v>
       </c>
       <c r="D13" t="n">
-        <v>163.8377936138381</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E13" t="n">
-        <v>163.8377936138381</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>163.8377936138381</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>163.8377936138381</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218343</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>111.634748879119</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279954</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764914</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760405</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1317.747152581905</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>1617.076751502319</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>1849.684251935978</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088493</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>1837.464090846021</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>1645.778206672847</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1424.011591242373</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1156.721581898233</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>902.0370936923462</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>612.6199236553855</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>384.6303727573681</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="Y13" t="n">
-        <v>163.8377936138381</v>
+        <v>990.5373202159263</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1590.514489367197</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C14" t="n">
-        <v>1221.551972426786</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D14" t="n">
-        <v>863.2862738200351</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>477.498021221791</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>66.51211643218343</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G14" t="n">
-        <v>66.51211643218343</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218343</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218343</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912083</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810548</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329463</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.55555606017</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296687</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052369</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T14" t="n">
-        <v>3325.605821609171</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>3325.605821609171</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V14" t="n">
-        <v>3093.488074938325</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W14" t="n">
-        <v>2740.71941966821</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X14" t="n">
-        <v>2367.25366140713</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y14" t="n">
-        <v>1977.114329431319</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218343</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228008</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158132</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.428070438129</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1091.613680441807</v>
+        <v>733.4550657171305</v>
       </c>
       <c r="C16" t="n">
-        <v>922.6774975139006</v>
+        <v>564.5188827892237</v>
       </c>
       <c r="D16" t="n">
-        <v>772.5608581015648</v>
+        <v>414.4022433768879</v>
       </c>
       <c r="E16" t="n">
-        <v>624.6477645191717</v>
+        <v>266.4891497944948</v>
       </c>
       <c r="F16" t="n">
-        <v>477.7578170212613</v>
+        <v>119.5992022965844</v>
       </c>
       <c r="G16" t="n">
-        <v>310.0549803959803</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H16" t="n">
-        <v>163.8377936138381</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218343</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
-        <v>111.634748879119</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279954</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>632.1817302764914</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760405</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1317.747152581905</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>1617.076751502319</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>1849.684251935978</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>1927.294548088493</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>1837.464090846021</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>1645.778206672847</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1424.011591242373</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U16" t="n">
-        <v>1424.011591242373</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V16" t="n">
-        <v>1424.011591242373</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W16" t="n">
-        <v>1424.011591242373</v>
+        <v>1363.885660588918</v>
       </c>
       <c r="X16" t="n">
-        <v>1424.011591242373</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y16" t="n">
-        <v>1273.262145272047</v>
+        <v>915.1035305473703</v>
       </c>
     </row>
     <row r="17">
@@ -5509,13 +5509,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075811</v>
@@ -5527,22 +5527,22 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C19" t="n">
-        <v>382.4184417036842</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D19" t="n">
-        <v>382.4184417036842</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E19" t="n">
-        <v>382.4184417036842</v>
+        <v>264.0500279773693</v>
       </c>
       <c r="F19" t="n">
-        <v>235.5284942057738</v>
+        <v>117.1600804794589</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="20">
@@ -5746,22 +5746,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355937</v>
@@ -5773,22 +5773,22 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
         <v>3467.980956852889</v>
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3342.537229081858</v>
+        <v>866.4638174991042</v>
       </c>
       <c r="C22" t="n">
-        <v>3173.601046153951</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="D22" t="n">
-        <v>3023.484406741615</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E22" t="n">
-        <v>2875.571313159222</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661312</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376192</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.77343521839</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>4690.833152398593</v>
+        <v>2330.071297269541</v>
       </c>
       <c r="T22" t="n">
-        <v>4690.833152398593</v>
+        <v>2330.071297269541</v>
       </c>
       <c r="U22" t="n">
-        <v>4517.069482196493</v>
+        <v>2040.996070613739</v>
       </c>
       <c r="V22" t="n">
-        <v>4262.384993990606</v>
+        <v>1786.311582407852</v>
       </c>
       <c r="W22" t="n">
-        <v>3972.967823953645</v>
+        <v>1496.894412370891</v>
       </c>
       <c r="X22" t="n">
-        <v>3744.978273055628</v>
+        <v>1268.904861472874</v>
       </c>
       <c r="Y22" t="n">
-        <v>3524.185693912098</v>
+        <v>1048.112282329344</v>
       </c>
     </row>
     <row r="23">
@@ -5986,34 +5986,34 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
         <v>4606.285157492578</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
         <v>243.4633055756266</v>
@@ -6074,19 +6074,19 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>763.7541388327643</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>594.8179559048574</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>444.7013164925216</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>296.7882229101285</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>149.8982754122182</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.286391947399</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741512</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704551</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1166.195182806534</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>945.402603663004</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6208,25 +6208,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6244,13 +6244,13 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
         <v>4606.285157492578</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
@@ -6320,13 +6320,13 @@
         <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263527</v>
+        <v>733.4550657171305</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>733.4550657171305</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>733.4550657171305</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>585.5419721347374</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>438.652024636827</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>271.455925351707</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>129.7440941939051</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U28" t="n">
-        <v>2273.199413378161</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V28" t="n">
-        <v>2018.514925172274</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W28" t="n">
-        <v>1729.097755135313</v>
+        <v>1363.885660588918</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.108204237296</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>915.1035305473703</v>
       </c>
     </row>
     <row r="29">
@@ -6442,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6451,22 +6451,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,37 +6475,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
         <v>243.4633055756266</v>
@@ -6554,13 +6554,13 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1896.176478190825</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3342.537229081859</v>
+        <v>724.7519863413023</v>
       </c>
       <c r="C31" t="n">
-        <v>3173.601046153952</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D31" t="n">
-        <v>3023.484406741616</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E31" t="n">
-        <v>2875.571313159223</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>2728.681365661313</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4690.833152398593</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>4690.833152398593</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>4517.069482196493</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>4262.384993990607</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>3972.967823953646</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>3744.978273055629</v>
+        <v>1127.193030315072</v>
       </c>
       <c r="Y31" t="n">
-        <v>3524.185693912098</v>
+        <v>906.400451171542</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6688,22 +6688,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6712,28 +6712,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
         <v>3820.749612123003</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3007.624207651098</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>2838.688024723192</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>2688.571385310856</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E34" t="n">
-        <v>2540.658291728463</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F34" t="n">
-        <v>2393.768344230552</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G34" t="n">
-        <v>2337.686731866304</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4690.833152398593</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>4471.231687421535</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>4182.156460765733</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>3927.471972559846</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>3638.054802522885</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>3410.065251624868</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>3189.272672481338</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
@@ -7031,13 +7031,13 @@
         <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>2227.361618603201</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7165,28 +7165,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7256,22 +7256,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2824.769373306003</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C40" t="n">
-        <v>2655.833190378096</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D40" t="n">
-        <v>2505.71655096576</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E40" t="n">
-        <v>2357.803457383367</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>4288.376853076439</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>3999.301626420637</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>3744.61713821475</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>3455.19996817779</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X40" t="n">
-        <v>3227.210417279773</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y40" t="n">
-        <v>3006.417838136243</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
@@ -7408,13 +7408,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,16 +7423,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7499,16 +7499,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.96308358026</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>2273.199413378161</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>2018.514925172274</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7636,40 +7636,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7724,25 +7724,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2876.594459243706</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C46" t="n">
-        <v>2876.594459243706</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="D46" t="n">
-        <v>2876.594459243706</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="E46" t="n">
-        <v>2728.681365661313</v>
+        <v>296.7882229101294</v>
       </c>
       <c r="F46" t="n">
-        <v>2728.681365661313</v>
+        <v>149.8982754122191</v>
       </c>
       <c r="G46" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>4440.9326143059</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T46" t="n">
-        <v>4221.331149328841</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U46" t="n">
-        <v>3932.255922673039</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V46" t="n">
-        <v>3677.571434467152</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W46" t="n">
-        <v>3388.154264430192</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X46" t="n">
-        <v>3160.164713532175</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y46" t="n">
-        <v>2939.372134388645</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
   </sheetData>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>168.7434581780645</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>54.95314511566568</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8081,7 +8081,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>126.491952119223</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,19 +23308,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23418,22 +23418,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>107.0485416471239</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>21.59472895491439</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23509,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>97.95568926599657</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>139.9994244361425</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,22 +23706,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>69.34270184147212</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>37.12601365260466</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>142.4141550350967</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24025,7 +24025,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>65.3034175540319</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>110.003342051665</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24603,10 +24603,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>45.69767948409166</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>208.7894017452182</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>110.0033420516633</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25171,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>45.37941682720987</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25560,7 +25560,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>125.5054897610393</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -25569,7 +25569,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>46.45968844823051</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25791,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>117.682081788448</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>110.0033420516641</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>810492.3420568488</v>
+        <v>957546.4141109423</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>810492.3420568487</v>
+        <v>957546.4141109422</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>957546.4141109422</v>
+        <v>957546.414110942</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>957546.4141109423</v>
+        <v>957546.4141109422</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>957546.4141109423</v>
+        <v>957546.414110942</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>957546.4141109422</v>
+        <v>957546.414110942</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>957546.4141109423</v>
+        <v>957546.414110942</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>957546.4141109423</v>
+        <v>957546.414110942</v>
       </c>
     </row>
     <row r="16">
@@ -26316,16 +26316,16 @@
         <v>472099.017671963</v>
       </c>
       <c r="C2" t="n">
+        <v>472099.0176719631</v>
+      </c>
+      <c r="D2" t="n">
         <v>472099.0176719632</v>
       </c>
-      <c r="D2" t="n">
-        <v>472099.0176719631</v>
-      </c>
       <c r="E2" t="n">
-        <v>392146.6638165589</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="F2" t="n">
-        <v>392146.663816559</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="G2" t="n">
         <v>464109.2948217536</v>
@@ -26334,16 +26334,16 @@
         <v>464109.2948217536</v>
       </c>
       <c r="I2" t="n">
+        <v>464109.2948217537</v>
+      </c>
+      <c r="J2" t="n">
+        <v>464109.2948217537</v>
+      </c>
+      <c r="K2" t="n">
         <v>464109.2948217536</v>
       </c>
-      <c r="J2" t="n">
-        <v>464109.2948217536</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>464109.2948217537</v>
-      </c>
-      <c r="L2" t="n">
-        <v>464109.2948217536</v>
       </c>
       <c r="M2" t="n">
         <v>464109.2948217536</v>
@@ -26352,7 +26352,7 @@
         <v>464109.2948217536</v>
       </c>
       <c r="O2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217539</v>
       </c>
       <c r="P2" t="n">
         <v>464109.2948217537</v>
@@ -26368,22 +26368,22 @@
         <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.7416121058</v>
+        <v>203438.7416121057</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>309843.0334598196</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26392,19 +26392,19 @@
         <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605442</v>
+        <v>49110.09270605445</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>82135.83059545125</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>137930.4104072219</v>
+        <v>137930.4104072218</v>
       </c>
       <c r="C4" t="n">
-        <v>89134.17909312021</v>
+        <v>89134.17909312015</v>
       </c>
       <c r="D4" t="n">
-        <v>89134.17909312017</v>
+        <v>89134.17909312018</v>
       </c>
       <c r="E4" t="n">
-        <v>9770.403102091475</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="F4" t="n">
-        <v>9770.403102091475</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="G4" t="n">
         <v>9947.144321768897</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26478,10 +26478,10 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.3405613933</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.3405613933</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-873520.9487510233</v>
+        <v>-873520.9487510235</v>
       </c>
       <c r="C6" t="n">
-        <v>71592.15640534385</v>
+        <v>71592.15640534399</v>
       </c>
       <c r="D6" t="n">
-        <v>275030.8980174497</v>
+        <v>275030.8980174498</v>
       </c>
       <c r="E6" t="n">
-        <v>308069.9201530741</v>
+        <v>27279.77961436534</v>
       </c>
       <c r="F6" t="n">
-        <v>308069.9201530742</v>
+        <v>352692.2414217208</v>
       </c>
       <c r="G6" t="n">
-        <v>43196.58721625802</v>
+        <v>352692.2414217207</v>
       </c>
       <c r="H6" t="n">
-        <v>353039.6206760774</v>
+        <v>352692.2414217207</v>
       </c>
       <c r="I6" t="n">
-        <v>353039.6206760776</v>
+        <v>352692.2414217207</v>
       </c>
       <c r="J6" t="n">
-        <v>185434.4428660951</v>
+        <v>185087.0636117382</v>
       </c>
       <c r="K6" t="n">
-        <v>303929.5279700233</v>
+        <v>303582.1487156662</v>
       </c>
       <c r="L6" t="n">
-        <v>353039.6206760776</v>
+        <v>352692.2414217207</v>
       </c>
       <c r="M6" t="n">
-        <v>353039.6206760777</v>
+        <v>267637.2134862088</v>
       </c>
       <c r="N6" t="n">
-        <v>353039.6206760776</v>
+        <v>352692.2414217207</v>
       </c>
       <c r="O6" t="n">
-        <v>270903.7900806265</v>
+        <v>352692.2414217209</v>
       </c>
       <c r="P6" t="n">
-        <v>353039.6206760777</v>
+        <v>352692.2414217208</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26746,10 +26746,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593298</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26789,40 +26789,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022929</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26959,25 +26959,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
-        <v>155.7118084757591</v>
+        <v>155.7118084757589</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>278.1987997483752</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="C4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>341.3068326973553</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,22 +27035,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>341.3068326973553</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>341.3068326973553</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>343.0559521378213</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>187.2948394557165</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
@@ -27584,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>104.3353978317207</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>216.8034931298451</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27627,7 +27627,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>277.2566436803262</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27672,7 +27672,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27681,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>158.5207149607581</v>
       </c>
     </row>
     <row r="6">
@@ -27779,16 +27779,16 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>113.4197768217114</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27824,25 +27824,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>94.0442761581327</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>71.00037073623326</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27870,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>13.4513345552605</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>51.24558311758206</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>17.852179514667</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -31041,34 +31041,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J2" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q2" t="n">
         <v>405.5015080147052</v>
@@ -31077,13 +31077,13 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,34 +31120,34 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H3" t="n">
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31156,10 +31156,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U3" t="n">
         <v>0.1321789941675764</v>
@@ -31205,19 +31205,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N4" t="n">
         <v>257.7559726067959</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>138.937596729739</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>19.1778794245112</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798531</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002929</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905541</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>17.47215759311879</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>138.937596729739</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.556281789588</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,46 +32387,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32791,37 +32791,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>164.9290651940687</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33028,19 +33028,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>363.5371514786841</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33049,16 +33049,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33265,37 +33265,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>359.7096985496635</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33502,37 +33502,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33739,19 +33739,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>363.5371514786841</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33760,16 +33760,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33976,37 +33976,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34213,37 +34213,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,34 +34438,34 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>652.0478969157701</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34701,28 +34701,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q2" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,22 +34777,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>355.3309544215493</v>
+        <v>451.0527332560635</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>352.633505753516</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235323</v>
@@ -34801,7 +34801,7 @@
         <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N4" t="n">
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701981</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934838</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675401</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451104</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859626</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701981</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934838</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675401</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451104</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,22 +36199,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36442,22 +36442,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>22.33282074962425</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36679,16 +36679,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>220.9409070342396</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36697,7 +36697,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36916,22 +36916,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>228.3679864663302</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,25 +37150,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37390,16 +37390,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>220.9409070342396</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37408,7 +37408,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,25 +37624,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,22 +37864,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,19 +38101,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>509.9138629937518</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_15_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_15_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1139895.503855126</v>
+        <v>1143050.423197347</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>1042617.113969141</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11128260.55082949</v>
+        <v>10871827.57914585</v>
       </c>
     </row>
     <row r="11">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>79.77884995492016</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>63.82009360389013</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
@@ -721,10 +721,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -831,13 +831,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>90.32706253001675</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>214.4748271731357</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1071,7 +1071,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1107,16 +1107,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>192.1675620474802</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>80.00124118081825</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>283.6826708844497</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1153,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>336.9049854834724</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1296,7 +1296,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>97.3698899006303</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>83.35317719075495</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -1350,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1372,10 +1372,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710079</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>33.2155532415963</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1384,10 +1384,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.4010792945512</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364134</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T12" t="n">
-        <v>188.3046392154443</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>41.56693137108846</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>114.4746605491563</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620684</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1621,10 +1621,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>188.0521489122183</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.4010792945512</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364134</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T15" t="n">
-        <v>188.3046392154443</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1770,16 +1770,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>25.52471385612638</v>
+        <v>36.15999212057541</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2010,16 +2010,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>115.8627380890767</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>23.10998325717215</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2061,7 +2061,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>28.45765197016587</v>
       </c>
       <c r="S22" t="n">
-        <v>115.7228684476127</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2487,16 +2487,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>4.019807611472458</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179931</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2721,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2730,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>104.8913819999786</v>
       </c>
       <c r="I28" t="n">
-        <v>35.56815683447386</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2806,10 +2806,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2955,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2964,10 +2964,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>132.6315337216692</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>16.92025364381894</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3091,7 +3091,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3198,16 +3198,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703271</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>29.24923305751743</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3322,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>69.18922512558713</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3483,7 +3483,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3562,7 +3562,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>62.1884230276014</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3723,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>240.0633098883605</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3900,19 +3900,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>82.47290449300864</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.146142788179931</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4036,7 +4036,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4140,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>28.23631843387954</v>
       </c>
       <c r="G46" t="n">
-        <v>55.52079624060473</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>531.4162778577447</v>
+        <v>1768.94973892659</v>
       </c>
       <c r="C2" t="n">
-        <v>531.4162778577447</v>
+        <v>1688.365042002428</v>
       </c>
       <c r="D2" t="n">
-        <v>531.4162778577447</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="E2" t="n">
-        <v>531.4162778577447</v>
+        <v>944.3110907974333</v>
       </c>
       <c r="F2" t="n">
-        <v>466.9515368437143</v>
+        <v>533.3251860078258</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800313</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800313</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800313</v>
@@ -4336,13 +4336,13 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
         <v>2055.228484740841</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400156</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926627</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.894479532451</v>
+        <v>2353.593687005981</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.313418796631</v>
+        <v>2100.012626270161</v>
       </c>
       <c r="V2" t="n">
-        <v>1644.25053145306</v>
+        <v>1768.94973892659</v>
       </c>
       <c r="W2" t="n">
-        <v>1291.481876182946</v>
+        <v>1768.94973892659</v>
       </c>
       <c r="X2" t="n">
-        <v>918.0161179218665</v>
+        <v>1768.94973892659</v>
       </c>
       <c r="Y2" t="n">
-        <v>918.0161179218665</v>
+        <v>1768.94973892659</v>
       </c>
     </row>
     <row r="3">
@@ -4403,7 +4403,7 @@
         <v>165.4432786182533</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812058006</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800313</v>
@@ -4415,22 +4415,22 @@
         <v>560.1394111735143</v>
       </c>
       <c r="L3" t="n">
-        <v>909.2465818694951</v>
+        <v>854.8429682049862</v>
       </c>
       <c r="M3" t="n">
-        <v>1272.508600828715</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N3" t="n">
-        <v>1659.793729425661</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O3" t="n">
-        <v>1991.864164601822</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.04689843412</v>
+        <v>2214.708848710447</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400156</v>
+        <v>2538.001278676483</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400156</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>665.1026499885493</v>
+        <v>938.9442613508774</v>
       </c>
       <c r="C4" t="n">
-        <v>496.1664670606424</v>
+        <v>770.0080784229705</v>
       </c>
       <c r="D4" t="n">
-        <v>346.0498276483066</v>
+        <v>619.8914390106347</v>
       </c>
       <c r="E4" t="n">
-        <v>198.1367340659135</v>
+        <v>471.9783454282416</v>
       </c>
       <c r="F4" t="n">
-        <v>51.24678656800313</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800313</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800313</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800313</v>
@@ -4512,28 +4512,28 @@
         <v>1636.446120074498</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074498</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1545.206662973471</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1322.228182168206</v>
+        <v>1120.592726181117</v>
       </c>
       <c r="U4" t="n">
-        <v>1322.228182168206</v>
+        <v>1120.592726181117</v>
       </c>
       <c r="V4" t="n">
-        <v>1067.543693962319</v>
+        <v>1120.592726181117</v>
       </c>
       <c r="W4" t="n">
-        <v>1067.543693962319</v>
+        <v>1120.592726181117</v>
       </c>
       <c r="X4" t="n">
-        <v>1067.543693962319</v>
+        <v>1120.592726181117</v>
       </c>
       <c r="Y4" t="n">
-        <v>846.751114818789</v>
+        <v>1120.592726181117</v>
       </c>
     </row>
     <row r="5">
@@ -4570,13 +4570,13 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060172</v>
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>848.0708164780106</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C7" t="n">
-        <v>679.1346335501037</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D7" t="n">
-        <v>529.0179941377679</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H7" t="n">
         <v>66.51211643218343</v>
@@ -4755,22 +4755,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U7" t="n">
-        <v>1733.185899555685</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="V7" t="n">
-        <v>1478.501411349798</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="W7" t="n">
-        <v>1478.501411349798</v>
+        <v>1624.71859813194</v>
       </c>
       <c r="X7" t="n">
-        <v>1250.51186045178</v>
+        <v>1396.729047233923</v>
       </c>
       <c r="Y7" t="n">
-        <v>1029.71928130825</v>
+        <v>1175.936468090393</v>
       </c>
     </row>
     <row r="8">
@@ -4780,10 +4780,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1904.487375535338</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
-        <v>1904.487375535338</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
         <v>1617.939223126803</v>
@@ -4801,16 +4801,16 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
@@ -4822,34 +4822,34 @@
         <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410103</v>
+        <v>3072.075344883009</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.721789066532</v>
+        <v>3072.075344883009</v>
       </c>
       <c r="W8" t="n">
-        <v>2277.953133796418</v>
+        <v>3072.075344883009</v>
       </c>
       <c r="X8" t="n">
-        <v>1904.487375535338</v>
+        <v>3072.075344883009</v>
       </c>
       <c r="Y8" t="n">
-        <v>1904.487375535338</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064586</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4889,46 +4889,46 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,43 +4938,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>725.9304417640992</v>
+        <v>1078.483131735663</v>
       </c>
       <c r="C10" t="n">
-        <v>556.9942588361923</v>
+        <v>909.5469488077561</v>
       </c>
       <c r="D10" t="n">
-        <v>458.6408346941415</v>
+        <v>759.4303093954203</v>
       </c>
       <c r="E10" t="n">
-        <v>310.7277411117484</v>
+        <v>611.5172158130272</v>
       </c>
       <c r="F10" t="n">
-        <v>163.8377936138381</v>
+        <v>464.6272683151168</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>296.9244316898357</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>150.7072449076935</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.60866391532</v>
       </c>
       <c r="T10" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.60866391532</v>
       </c>
       <c r="U10" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.60866391532</v>
       </c>
       <c r="V10" t="n">
-        <v>1645.778206672847</v>
+        <v>1480.924175709433</v>
       </c>
       <c r="W10" t="n">
-        <v>1356.361036635886</v>
+        <v>1480.924175709433</v>
       </c>
       <c r="X10" t="n">
-        <v>1128.371485737869</v>
+        <v>1480.924175709433</v>
       </c>
       <c r="Y10" t="n">
-        <v>907.5789065943389</v>
+        <v>1260.131596565903</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>1311.909787855439</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1311.909787855439</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>481.584566587187</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>2071.975386180641</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>1698.509627919561</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>1698.509627919561</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>943.3991132778466</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C12" t="n">
-        <v>768.9460839967196</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D12" t="n">
-        <v>620.0116743354683</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568978</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028057</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273906</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2553.061288060775</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2434.850501963388</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2244.643795685161</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2016.615714228345</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1781.463605996603</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1527.226249268401</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1319.374749062868</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1111.614450297915</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>990.5373202159263</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="C13" t="n">
-        <v>821.6011372880195</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1530.147236421175</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X13" t="n">
-        <v>1211.329899359456</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y13" t="n">
-        <v>990.5373202159263</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551876</v>
+        <v>1422.200456328344</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611465</v>
+        <v>1053.237939387933</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1053.237939387933</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>667.4496867896883</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>256.4637820000807</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797191</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192605</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332389</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355939</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068012</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.41387069471</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>3119.628073993395</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466575</v>
+        <v>2866.097597267231</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123004</v>
+        <v>2535.03470992366</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.98095685289</v>
+        <v>2182.266054653546</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.51519859181</v>
+        <v>1808.800296392466</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615998</v>
+        <v>1808.800296392466</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>943.3991132778466</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>768.9460839967196</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>620.0116743354683</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>314.2396613568978</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>178.4809954028057</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273909</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
-        <v>2553.061288060775</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S15" t="n">
-        <v>2434.850501963388</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T15" t="n">
-        <v>2244.643795685161</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2016.615714228345</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
-        <v>1781.463605996603</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W15" t="n">
-        <v>1527.226249268401</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1319.374749062868</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1111.614450297915</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>733.4550657171305</v>
+        <v>271.9735439263281</v>
       </c>
       <c r="C16" t="n">
-        <v>564.5188827892237</v>
+        <v>103.0373609984212</v>
       </c>
       <c r="D16" t="n">
-        <v>414.4022433768879</v>
+        <v>103.0373609984212</v>
       </c>
       <c r="E16" t="n">
-        <v>266.4891497944948</v>
+        <v>103.0373609984212</v>
       </c>
       <c r="F16" t="n">
-        <v>119.5992022965844</v>
+        <v>103.0373609984212</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797191</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797191</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>1735.60866391532</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487568</v>
+        <v>1735.60866391532</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831765</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="V16" t="n">
-        <v>1653.302830625878</v>
+        <v>1191.821308835076</v>
       </c>
       <c r="W16" t="n">
-        <v>1363.885660588918</v>
+        <v>902.4041387981154</v>
       </c>
       <c r="X16" t="n">
-        <v>1135.8961096909</v>
+        <v>674.414587900098</v>
       </c>
       <c r="Y16" t="n">
-        <v>915.1035305473703</v>
+        <v>453.6220087565679</v>
       </c>
     </row>
     <row r="17">
@@ -5512,13 +5512,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,10 +5527,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694708</v>
@@ -5542,7 +5542,7 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
@@ -5606,7 +5606,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876693</v>
+        <v>835.5837926935562</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597624</v>
+        <v>666.6476097656493</v>
       </c>
       <c r="D19" t="n">
-        <v>411.9631215597624</v>
+        <v>666.6476097656493</v>
       </c>
       <c r="E19" t="n">
-        <v>264.0500279773693</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F19" t="n">
-        <v>117.1600804794589</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797189</v>
@@ -5709,16 +5709,16 @@
         <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1466.014387565343</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614391</v>
+        <v>1238.024836667326</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.547769317909</v>
+        <v>1017.232257523796</v>
       </c>
     </row>
     <row r="20">
@@ -5828,22 +5828,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>866.4638174991042</v>
+        <v>806.8386896933887</v>
       </c>
       <c r="C22" t="n">
-        <v>697.5276345711973</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711973</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888042</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2418.217980580093</v>
       </c>
       <c r="S22" t="n">
-        <v>2330.071297269541</v>
+        <v>2235.363146234998</v>
       </c>
       <c r="T22" t="n">
-        <v>2330.071297269541</v>
+        <v>2015.761681257939</v>
       </c>
       <c r="U22" t="n">
-        <v>2040.996070613739</v>
+        <v>1726.686454602137</v>
       </c>
       <c r="V22" t="n">
-        <v>1786.311582407852</v>
+        <v>1726.686454602137</v>
       </c>
       <c r="W22" t="n">
-        <v>1496.894412370891</v>
+        <v>1437.269284565176</v>
       </c>
       <c r="X22" t="n">
-        <v>1268.904861472874</v>
+        <v>1209.279733667159</v>
       </c>
       <c r="Y22" t="n">
-        <v>1048.112282329344</v>
+        <v>988.4871545236284</v>
       </c>
     </row>
     <row r="23">
@@ -5968,7 +5968,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5977,34 +5977,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694708</v>
@@ -6016,13 +6016,13 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6065,19 +6065,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
         <v>2001.151557821488</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>265.073174061852</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>97.87707477673194</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>97.87707477673194</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797189</v>
@@ -6171,28 +6171,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6214,22 +6214,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6238,10 +6238,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694708</v>
@@ -6253,13 +6253,13 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123003</v>
@@ -6302,22 +6302,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>733.4550657171305</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>733.4550657171305</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D28" t="n">
-        <v>733.4550657171305</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E28" t="n">
-        <v>585.5419721347374</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="F28" t="n">
-        <v>438.652024636827</v>
+        <v>366.9636532421613</v>
       </c>
       <c r="G28" t="n">
-        <v>271.455925351707</v>
+        <v>199.7675539570412</v>
       </c>
       <c r="H28" t="n">
-        <v>129.7440941939051</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797189</v>
@@ -6414,22 +6414,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1363.885660588918</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>915.1035305473703</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6454,19 +6454,19 @@
         <v>793.7736536168616</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6478,7 +6478,7 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694708</v>
@@ -6539,22 +6539,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>724.7519863413023</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C31" t="n">
-        <v>555.8158034133954</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133954</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797189</v>
@@ -6645,28 +6645,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2312.991837396757</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2312.991837396757</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>2023.916610740955</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1769.232122535068</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1479.814952498107</v>
       </c>
       <c r="X31" t="n">
-        <v>1127.193030315072</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y31" t="n">
-        <v>906.400451171542</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6688,16 +6688,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
@@ -6706,10 +6706,10 @@
         <v>852.852361107581</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355938</v>
@@ -6776,22 +6776,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121648</v>
+        <v>265.073174061852</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>265.073174061852</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>123.3613429040501</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797189</v>
@@ -6882,28 +6882,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="35">
@@ -6928,19 +6928,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,7 +6949,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6961,25 +6961,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>1018.438627038652</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121648</v>
+        <v>849.5024441107454</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121648</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121648</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782958</v>
@@ -7119,28 +7119,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1648.869221910439</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>1420.879671012422</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>1200.087091868892</v>
       </c>
     </row>
     <row r="38">
@@ -7165,58 +7165,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,25 +7247,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>560.7825789706076</v>
+        <v>762.547769317909</v>
       </c>
       <c r="C40" t="n">
-        <v>391.8463960427007</v>
+        <v>762.547769317909</v>
       </c>
       <c r="D40" t="n">
-        <v>241.729756630365</v>
+        <v>612.4311299055732</v>
       </c>
       <c r="E40" t="n">
-        <v>93.81666304797187</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782958</v>
@@ -7356,28 +7356,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1191.213173842395</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>963.2236229443774</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y40" t="n">
-        <v>742.4310438008473</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="41">
@@ -7399,40 +7399,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7487,22 +7487,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
@@ -7593,28 +7593,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="44">
@@ -7636,16 +7636,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111716</v>
@@ -7660,10 +7660,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694708</v>
@@ -7672,25 +7672,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,10 +7721,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J45" t="n">
         <v>245.2306927803938</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>763.7541388327652</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C46" t="n">
-        <v>594.8179559048583</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D46" t="n">
-        <v>444.7013164925226</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E46" t="n">
-        <v>296.7882229101294</v>
+        <v>264.0500279773693</v>
       </c>
       <c r="F46" t="n">
-        <v>149.8982754122191</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782958</v>
@@ -7833,25 +7833,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603202</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1938.2863919474</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1683.601903741513</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1394.184733704552</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>1166.195182806535</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y46" t="n">
-        <v>945.4026036630049</v>
+        <v>762.547769317909</v>
       </c>
     </row>
   </sheetData>
@@ -8063,7 +8063,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>54.95314511566568</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8075,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>30.36925650589507</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154985</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23260,10 +23260,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>321.4674883790867</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>107.0485416471239</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>105.0742887270129</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23500,7 +23500,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23509,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>222.8695767412352</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>139.9994244361425</v>
+        <v>129.8658161384528</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23898,16 +23898,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>30.57122455749243</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>142.4141550350967</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856552</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>37.91759473995579</v>
       </c>
       <c r="S22" t="n">
-        <v>65.3034175540319</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24375,16 +24375,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>77.24602870709306</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.22910392194173</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24609,7 +24609,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>35.40333084624521</v>
       </c>
       <c r="I28" t="n">
-        <v>45.69767948409166</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24852,10 +24852,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856552</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>48.39475227997539</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>208.7894017452182</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25086,16 +25086,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194174</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>52.01660326104809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>79.42624789262523</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25548,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>84.24553961896777</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856552</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>46.45968844823051</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25788,19 +25788,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>84.77391660561919</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.22910392194173</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26028,19 +26028,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>117.1847295890517</v>
       </c>
       <c r="G46" t="n">
-        <v>110.0033420516641</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856552</v>
@@ -26073,7 +26073,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>957546.4141109423</v>
+        <v>810492.3420568487</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>957546.4141109422</v>
+        <v>810492.3420568487</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>957546.414110942</v>
+        <v>957546.4141109422</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>957546.4141109422</v>
+        <v>957546.414110942</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>957546.414110942</v>
+        <v>957546.4141109422</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>957546.414110942</v>
+        <v>957546.4141109423</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>957546.414110942</v>
+        <v>957546.4141109423</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>957546.414110942</v>
+        <v>957546.4141109422</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>957546.4141109422</v>
+        <v>957546.414110942</v>
       </c>
     </row>
   </sheetData>
@@ -26316,31 +26316,31 @@
         <v>472099.017671963</v>
       </c>
       <c r="C2" t="n">
-        <v>472099.0176719631</v>
+        <v>472099.0176719632</v>
       </c>
       <c r="D2" t="n">
-        <v>472099.0176719632</v>
+        <v>472099.0176719633</v>
       </c>
       <c r="E2" t="n">
-        <v>464109.2948217536</v>
+        <v>392146.663816559</v>
       </c>
       <c r="F2" t="n">
-        <v>464109.2948217537</v>
+        <v>392146.663816559</v>
       </c>
       <c r="G2" t="n">
         <v>464109.2948217536</v>
       </c>
       <c r="H2" t="n">
+        <v>464109.2948217537</v>
+      </c>
+      <c r="I2" t="n">
         <v>464109.2948217536</v>
-      </c>
-      <c r="I2" t="n">
-        <v>464109.2948217537</v>
       </c>
       <c r="J2" t="n">
         <v>464109.2948217537</v>
       </c>
       <c r="K2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="L2" t="n">
         <v>464109.2948217537</v>
@@ -26349,10 +26349,10 @@
         <v>464109.2948217536</v>
       </c>
       <c r="N2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="O2" t="n">
-        <v>464109.2948217539</v>
+        <v>464109.2948217538</v>
       </c>
       <c r="P2" t="n">
         <v>464109.2948217537</v>
@@ -26371,16 +26371,16 @@
         <v>203438.7416121057</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>309843.0334598199</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>82135.83059545125</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,46 +26417,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>137930.4104072218</v>
+        <v>137930.4104072219</v>
       </c>
       <c r="C4" t="n">
         <v>89134.17909312015</v>
       </c>
       <c r="D4" t="n">
-        <v>89134.17909312018</v>
+        <v>89134.17909312011</v>
       </c>
       <c r="E4" t="n">
-        <v>9947.144321768897</v>
+        <v>9770.403102091475</v>
       </c>
       <c r="F4" t="n">
-        <v>9947.144321768897</v>
+        <v>9770.403102091475</v>
       </c>
       <c r="G4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768899</v>
       </c>
       <c r="H4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768899</v>
       </c>
       <c r="I4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768899</v>
       </c>
       <c r="J4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768899</v>
       </c>
       <c r="K4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="L4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768899</v>
       </c>
       <c r="M4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768899</v>
       </c>
       <c r="N4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768899</v>
       </c>
       <c r="O4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768899</v>
       </c>
       <c r="P4" t="n">
         <v>9947.144321768897</v>
@@ -26478,10 +26478,10 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>74306.34056139333</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>74306.34056139333</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-873520.9487510235</v>
       </c>
       <c r="C6" t="n">
-        <v>71592.15640534399</v>
+        <v>71592.15640534405</v>
       </c>
       <c r="D6" t="n">
-        <v>275030.8980174498</v>
+        <v>275030.8980174497</v>
       </c>
       <c r="E6" t="n">
-        <v>27279.77961436534</v>
+        <v>307722.3012232681</v>
       </c>
       <c r="F6" t="n">
-        <v>352692.2414217208</v>
+        <v>307722.3012232681</v>
       </c>
       <c r="G6" t="n">
-        <v>352692.2414217207</v>
+        <v>43161.84929082195</v>
       </c>
       <c r="H6" t="n">
-        <v>352692.2414217207</v>
+        <v>353004.882750642</v>
       </c>
       <c r="I6" t="n">
-        <v>352692.2414217207</v>
+        <v>353004.8827506419</v>
       </c>
       <c r="J6" t="n">
-        <v>185087.0636117382</v>
+        <v>185399.7049406594</v>
       </c>
       <c r="K6" t="n">
-        <v>303582.1487156662</v>
+        <v>303894.7900445876</v>
       </c>
       <c r="L6" t="n">
-        <v>352692.2414217207</v>
+        <v>353004.882750642</v>
       </c>
       <c r="M6" t="n">
-        <v>267637.2134862088</v>
+        <v>353004.8827506419</v>
       </c>
       <c r="N6" t="n">
-        <v>352692.2414217207</v>
+        <v>353004.882750642</v>
       </c>
       <c r="O6" t="n">
-        <v>352692.2414217209</v>
+        <v>270869.0521551908</v>
       </c>
       <c r="P6" t="n">
-        <v>352692.2414217208</v>
+        <v>353004.882750642</v>
       </c>
     </row>
   </sheetData>
@@ -26743,13 +26743,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341674</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341674</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26795,13 +26795,13 @@
         <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099649</v>
@@ -26822,16 +26822,16 @@
         <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="N4" t="n">
         <v>1172.708288099649</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26965,16 +26965,16 @@
         <v>155.7118084757589</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>285.4940418160874</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>343.0559521378213</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247044</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27441,10 +27441,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27551,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>104.3353978317207</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>6.273868824076231</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27791,7 +27791,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27827,16 +27827,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>94.0442761581327</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>206.5217571557727</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>71.00037073623326</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -27912,16 +27912,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>49.33295317258114</v>
       </c>
     </row>
     <row r="9">
@@ -28016,7 +28016,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>51.24558311758206</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>12.99924321908314</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28070,13 +28070,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558013</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>299.2156706987476</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670478</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099322</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>299.2156706987476</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670478</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099322</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32326,10 +32326,10 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32548,7 +32548,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32563,10 +32563,10 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32785,7 +32785,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32794,13 +32794,13 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>339.3493584601592</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437244</v>
@@ -33022,7 +33022,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33037,10 +33037,10 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33259,7 +33259,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33496,7 +33496,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33511,10 +33511,10 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33733,7 +33733,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33748,10 +33748,10 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33970,7 +33970,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33985,10 +33985,10 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
         <v>125.3175546292901</v>
@@ -34207,7 +34207,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34222,10 +34222,10 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34392,7 +34392,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
         <v>125.3175546292901</v>
@@ -34783,7 +34783,7 @@
         <v>451.0527332560635</v>
       </c>
       <c r="L3" t="n">
-        <v>352.633505753516</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820406</v>
@@ -34795,13 +34795,13 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>280.0487856294274</v>
       </c>
       <c r="Q3" t="n">
         <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977097</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113569</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>159.2338966127261</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>159.2338966127261</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35974,10 +35974,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36211,10 +36211,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>200.7949786802851</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O24" t="n">
         <v>557.48457599928</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36685,10 +36685,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37159,10 +37159,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37396,10 +37396,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37633,10 +37633,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37870,10 +37870,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
